--- a/supplementary/data1/height.xlsx
+++ b/supplementary/data1/height.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simulation" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fit" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="description" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1529,4 +1530,210 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Spot intensity</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Spot width</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>snr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Signal-to-noise ration</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>background</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Image background</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Average target-specific binding probability</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Non-specific binding rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Proximity parameter</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ul</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>68% CI upper-limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>ll</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>68% CI lower-limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Matthews correlation coefficient</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>True positives</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>False negatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>True negatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>False positives</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/supplementary/data1/height.xlsx
+++ b/supplementary/data1/height.xlsx
@@ -1,15 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="simulation" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="fit" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="description" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="simulation" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="height1000" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="height3000" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="height600" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="height500" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="height2000" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="height300" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="height1500" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="height750" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="description" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +488,31 @@
           <t>snr</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Nc</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Fc</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,7 +545,22 @@
         <v>150</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3758899271488189</v>
+        <v>0.375889905491011</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>500</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>500</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
@@ -547,7 +594,22 @@
         <v>150</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6264832615852356</v>
+        <v>0.6264831758183516</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>500</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>500</v>
+      </c>
+      <c r="O3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -581,7 +643,22 @@
         <v>150</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7517798542976379</v>
+        <v>0.751779810982022</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>500</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>500</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -615,7 +692,22 @@
         <v>150</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9397248029708862</v>
+        <v>0.9397247637275276</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>500</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="n">
+        <v>500</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -649,7 +741,22 @@
         <v>150</v>
       </c>
       <c r="J6" t="n">
-        <v>1.252966523170471</v>
+        <v>1.252966351636703</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>500</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>500</v>
+      </c>
+      <c r="O6" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -683,7 +790,22 @@
         <v>150</v>
       </c>
       <c r="J7" t="n">
-        <v>1.879449605941772</v>
+        <v>1.879449527455055</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5</v>
+      </c>
+      <c r="L7" t="n">
+        <v>500</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>500</v>
+      </c>
+      <c r="O7" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -717,7 +839,22 @@
         <v>150</v>
       </c>
       <c r="J8" t="n">
-        <v>2.505933046340942</v>
+        <v>2.505932703273406</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>500</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="n">
+        <v>500</v>
+      </c>
+      <c r="O8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -751,7 +888,288 @@
         <v>150</v>
       </c>
       <c r="J9" t="n">
-        <v>3.758899211883545</v>
+        <v>3.75889905491011</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>500</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="n">
+        <v>500</v>
+      </c>
+      <c r="O9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Number of on-target AOIs</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Number of frames for on-target AOIs</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Nc</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Number of control off-target AOIs</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fc</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Number of frames for off-target AOIs</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Number of pixels along x- and y-axes of an AOI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Spot intensity</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>width</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Spot width</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>snr</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Signal-to-noise ratio</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>background</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Image background</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Average target-specific binding probability</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Non-specific binding rate</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Proximity parameter</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Probability of there being any target-specific spot in an AOI image</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>_ul</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>95% CI upper-limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>_ll</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>95% CI lower-limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Matthews correlation coefficient</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>True positives</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>False negatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>True negatives</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>False positives</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -765,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -776,120 +1194,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>snr</t>
+          <t>Mean</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>gain_mean</t>
+          <t>95% LL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>gain_ll</t>
+          <t>95% UL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gain_ul</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>pi_mean</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>pi_ll</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>pi_ul</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>lamda_mean</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>lamda_ll</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>lamda_ul</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>proximity_mean</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>proximity_ll</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>proximity_ul</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>z_median</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>z_ll</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>z_ul</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>height</t>
         </is>
@@ -898,633 +1216,280 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>height300</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1.171844244003296</v>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20.140445906126576</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>7.01715612411499</v>
+        <v>20.08592047404028</v>
       </c>
       <c r="D2" t="n">
-        <v>7.01715612411499</v>
+        <v>20.19525942711432</v>
       </c>
       <c r="E2" t="n">
-        <v>7.01715612411499</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.001520025660283864</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.001520025660283864</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.001520025660283864</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.466576916049235e-07</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.466576916049235e-07</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.466576916049235e-07</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.3154768347740173</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.3154768347740173</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.3154768347740173</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.09792101918965368</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.0111731843575419</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2142</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>354</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.0001474235905334353</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.968378223362379e-05</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.001016087713651359</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>height500</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1.158542990684509</v>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.1640154632079813</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>7.036217212677002</v>
+        <v>0.1501772119492528</v>
       </c>
       <c r="D3" t="n">
-        <v>7.036217212677002</v>
+        <v>0.1780338196089178</v>
       </c>
       <c r="E3" t="n">
-        <v>7.036217212677002</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.02524562738835812</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.02524562738835812</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.02524562738835812</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.926316765046067e-07</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.926316765046067e-07</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.926316765046067e-07</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.2960794568061829</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.2960794568061829</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.2960794568061829</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.3362065817987522</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.1396648044692737</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.9433962264150944</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2139</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>308</v>
-      </c>
-      <c r="U3" t="n">
-        <v>50</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.02374214492738247</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.003706903662532568</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.393329530954361</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>height600</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1.08803379535675</v>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.05936712411151478</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>7.062657356262207</v>
+        <v>0.0524017598243203</v>
       </c>
       <c r="D4" t="n">
-        <v>7.062657356262207</v>
+        <v>0.06627394158075001</v>
       </c>
       <c r="E4" t="n">
-        <v>7.062657356262207</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.06225205957889557</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.06225205957889557</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.06225205957889557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.001840548240579665</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.001840548240579665</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.001840548240579665</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3021456003189087</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.3021456003189087</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.3021456003189087</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.5657256074269409</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.3770949720670391</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.9507042253521126</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2135</v>
-      </c>
-      <c r="S4" t="n">
-        <v>7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>223</v>
-      </c>
-      <c r="U4" t="n">
-        <v>135</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.2379715740680695</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.02678802981972694</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.967548668384552</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>height750</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1.099096298217773</v>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.24105175697389333</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>7.058380603790283</v>
+        <v>0.2291458850111629</v>
       </c>
       <c r="D5" t="n">
-        <v>7.058380603790283</v>
+        <v>0.2530506755001204</v>
       </c>
       <c r="E5" t="n">
-        <v>7.058380603790283</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1193919107317924</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.1193919107317924</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.1193919032812119</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.01332162600010633</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.01332162600010633</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.01332162600010633</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.3146229088306427</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.3146229088306427</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.3146229088306427</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.836255160728856</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.776536312849162</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.9455782312925171</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2126</v>
-      </c>
-      <c r="S5" t="n">
-        <v>16</v>
-      </c>
-      <c r="T5" t="n">
-        <v>80</v>
-      </c>
-      <c r="U5" t="n">
-        <v>278</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.9550621509552002</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.3364062309265137</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.9987021684646606</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>750</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>height1000</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1.26231050491333</v>
+          <t>Keq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.19626664833207594</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>7.055233478546143</v>
+        <v>0.1767159881196971</v>
       </c>
       <c r="D6" t="n">
-        <v>7.055233478546143</v>
+        <v>0.2165951423194617</v>
       </c>
       <c r="E6" t="n">
-        <v>7.055233478546143</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1497830748558044</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.1497830748558044</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.1497830748558044</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.06875273585319519</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.06875273585319519</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.06875273585319519</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.2811377942562103</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.2811377942562103</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.2811377942562103</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.9649563246620204</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.9888268156424581</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.9516129032258065</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2124</v>
-      </c>
-      <c r="S6" t="n">
-        <v>18</v>
-      </c>
-      <c r="T6" t="n">
-        <v>4</v>
-      </c>
-      <c r="U6" t="n">
-        <v>354</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.9975162744522095</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.990175724029541</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.9982438087463379</v>
-      </c>
-      <c r="Y6" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>height1500</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.868378162384033</v>
-      </c>
-      <c r="C7" t="n">
-        <v>7.00490140914917</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7.00490140914917</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.1085023043194486</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>7.00490140914917</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.1475898176431656</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.1475898176431656</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.1475898176431656</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1240443363785744</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.1240443363785744</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.124044343829155</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.2317782640457153</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.2317782640457153</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.2317782640457153</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.9741455210778585</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.9860335195530726</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.9697802197802198</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2131</v>
-      </c>
-      <c r="S7" t="n">
-        <v>11</v>
-      </c>
-      <c r="T7" t="n">
-        <v>5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>353</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.9973952174186707</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.9960199594497681</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.9980225563049316</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>height2000</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.50250244140625</v>
-      </c>
-      <c r="C8" t="n">
-        <v>6.991581439971924</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6.991581439971924</v>
-      </c>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.9364722327678796</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>6.991581439971924</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.1442831605672836</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1442831605672836</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.1442831605672836</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.1339200735092163</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.1339200735092163</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.1339200735092163</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.2183773815631866</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.2183773815631866</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.2183773815631866</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.9772370913987374</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0.9832402234636871</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.9777777777777777</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2134</v>
-      </c>
-      <c r="S8" t="n">
-        <v>8</v>
-      </c>
-      <c r="T8" t="n">
-        <v>6</v>
-      </c>
-      <c r="U8" t="n">
-        <v>352</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.9976308345794678</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.9957915544509888</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.9982155561447144</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>height3000</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>3.7675621509552</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.999659061431885</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6.999659061431885</v>
-      </c>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.9401913875598086</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>6.999659061431885</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.1470869183540344</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1470869183540344</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.1470869183540344</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1368161290884018</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.1368161290884018</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1368161290884018</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.2047126442193985</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.2047126442193985</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.2047126442193985</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.9755217026524068</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.9776536312849162</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.9803921568627451</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2135</v>
-      </c>
-      <c r="S9" t="n">
-        <v>7</v>
-      </c>
-      <c r="T9" t="n">
-        <v>8</v>
-      </c>
-      <c r="U9" t="n">
-        <v>350</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.9979246854782104</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.9958202242851257</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.9985261559486389</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>3000</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.9538834951456311</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2063</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.994</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.92572</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>trained</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1538,7 +1503,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1549,188 +1514,2218 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>gain</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spot intensity</t>
-        </is>
+          <t>19.88957487503743</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19.83392401079928</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.94209355564357</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>width</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spot width</t>
-        </is>
+          <t>0.1688227865642009</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1544250514856262</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1828753996014846</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>snr</t>
+          <t>lamda</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Signal-to-noise ration</t>
-        </is>
+          <t>0.15555460802619228</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1451114381525201</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1651813140665994</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>background</t>
+          <t>proximity</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Image background</t>
-        </is>
+          <t>0.1978243973632972</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1883472473652682</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2061466379899108</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>Keq</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Average target-specific binding probability</t>
-        </is>
+          <t>0.20285853057262573</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1826272858137609</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2238036503586951</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>lamda</t>
+          <t>SNR</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Non-specific binding rate</t>
-        </is>
+          <t>3.432162093847412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>proximity</t>
+          <t>MCC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Proximity parameter</t>
-        </is>
+          <t>0.9785257584601095</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>z</t>
+          <t>Recall</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>p(specific)</t>
-        </is>
+          <t>0.9856459330143541</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ul</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>68% CI upper-limit</t>
-        </is>
+          <t>0.9786223277909739</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ll</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>68% CI lower-limit</t>
-        </is>
+          <t>2073</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
+          <t>FP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Matthews correlation coefficient</t>
-        </is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>FN</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>True positives</t>
-        </is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>False negatives</t>
-        </is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>p(specific)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>True negatives</t>
-        </is>
+          <t>0.997</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
+          <t>trained</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20.15715222669375</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20.09871966009402</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.21304133717135</v>
+      </c>
+      <c r="E2" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.04108297314132614</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0338625706485192</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0486836055473971</v>
+      </c>
+      <c r="E3" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.001109402358657312</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0003930269580412</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0021313222376623</v>
+      </c>
+      <c r="E4" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.2195316901856403</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1982858411262894</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2412725935499453</v>
+      </c>
+      <c r="E5" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Keq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.042844401875755965</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0350494352931625</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0511749966594528</v>
+      </c>
+      <c r="E6" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.8382670774356019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.4035983885594336</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.19856459330143542</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.9651162790697675</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2079</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
           <t>FP</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6294000000000002</v>
+      </c>
+      <c r="E15" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>trained</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>False positives</t>
-        </is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20.216286107267667</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20.16572183131433</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.26314949937179</v>
+      </c>
+      <c r="E2" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.009593860956533189</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0059298786946403</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0133739692315541</v>
+      </c>
+      <c r="E3" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.00026630568265865047</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1.176631234397069e-05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0009042566069322</v>
+      </c>
+      <c r="E4" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.26816060360817495</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2160859674613623</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3180931596516513</v>
+      </c>
+      <c r="E5" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Keq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.009479061717086797</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0059652523604988</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0135552935413262</v>
+      </c>
+      <c r="E6" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.8944517271712079</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.17911683938561454</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.03827751196172249</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.007</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.05428</v>
+      </c>
+      <c r="E15" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>trained</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>19.942930496023656</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19.88284893770522</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19.99798518192015</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.17104081654648043</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1575618535155968</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.185501805487448</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.14890107209101427</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1397984688029721</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1590419386784503</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.20563206191185585</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1958951476226912</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2157681316795433</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Keq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.20674658746274235</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1870307727957001</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.227749812980667</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2.2626038250539438</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.9757934464391493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.9880382775119617</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.971764705882353</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2070</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.996</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>trained</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20.139393057830656</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20.08374113254349</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.18743211878954</v>
+      </c>
+      <c r="E2" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.00022719446513872382</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4.235168683984837e-07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0008993391892392</v>
+      </c>
+      <c r="E3" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.00019797109150229895</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5.591881403444299e-06</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0008052522744499</v>
+      </c>
+      <c r="E4" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.9530935264915614</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0278600681821872</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.748378867494834</v>
+      </c>
+      <c r="E5" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Keq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.00021513176796644377</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4.235170478937815e-07</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0009001506618761</v>
+      </c>
+      <c r="E6" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>trained</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20.04764797522867</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19.99147015969449</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.10316300504439</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.170591023905313</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.1573513870759241</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1856582593186256</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.13488686043683473</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1260083870938148</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1452270645584449</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.21037945167560795</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2006422173706756</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.219665626033344</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Keq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.20578093235126818</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1867343365006741</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2279856871375483</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.66544357762601</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.9701741542282935</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.9856459330143541</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.9648711943793911</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2067</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.995</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>trained</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mean</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>95% LL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>95% UL</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>gain</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20.19788858448332</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20.14419294973661</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.25372081861976</v>
+      </c>
+      <c r="E2" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.10252091953143949</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0918122201777104</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1131171528754864</v>
+      </c>
+      <c r="E3" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>lamda</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.00856457284725875</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0059579123441156</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0111889740626732</v>
+      </c>
+      <c r="E4" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.24426581940556974</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2301680561675135</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2590439909375681</v>
+      </c>
+      <c r="E5" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Keq</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.11418718847887335</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1010939016758237</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1275447948794958</v>
+      </c>
+      <c r="E6" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.9032625446567821</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0.7184506805888212</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0.5885167464114832</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.9609375</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.715</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.992</v>
+      </c>
+      <c r="E15" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>trained</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/supplementary/data1/height.xlsx
+++ b/supplementary/data1/height.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>snr</t>
+          <t>SNR</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1221,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.140445906126576</t>
+          <t>7.057962297856839</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.08592047404028</v>
+        <v>7.039929869230657</v>
       </c>
       <c r="D2" t="n">
-        <v>20.19525942711432</v>
+        <v>7.076834808306247</v>
       </c>
       <c r="E2" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.1640154632079813</t>
+          <t>0.16651061243110335</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1501772119492528</v>
+        <v>0.1532730073110934</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1780338196089178</v>
+        <v>0.1798483709839325</v>
       </c>
       <c r="E3" t="n">
-        <v>1000</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.05936712411151478</t>
+          <t>0.09463688946301527</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0524017598243203</v>
+        <v>0.0872482834649749</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06627394158075001</v>
+        <v>0.1032714023124172</v>
       </c>
       <c r="E4" t="n">
-        <v>1000</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.24105175697389333</t>
+          <t>0.26108147380757496</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2291458850111629</v>
+        <v>0.2488915863015882</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2530506755001204</v>
+        <v>0.2742117804529039</v>
       </c>
       <c r="E5" t="n">
-        <v>1000</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -1305,18 +1305,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.19626664833207594</t>
+          <t>0.19906004536715616</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1767159881196971</v>
+        <v>0.1810182202301379</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2165951423194617</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1000</v>
-      </c>
+        <v>0.2192867590278528</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1326,13 +1324,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.1085023043194486</t>
+          <t>1.2423315546024025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1000</v>
+        <v>1.252966351636703</v>
       </c>
     </row>
     <row r="8">
@@ -1343,14 +1341,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.9364722327678796</t>
+          <t>0.9498811287415511</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1360,14 +1356,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.9401913875598086</t>
+          <t>0.9617224880382775</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1377,14 +1371,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.9538834951456311</t>
+          <t>0.9548693586698337</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1399,9 +1391,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1416,9 +1406,7 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1428,14 +1416,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1445,14 +1431,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>402</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1466,14 +1450,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.92572</v>
+        <v>0.96972</v>
       </c>
       <c r="D15" t="n">
         <v>0.998</v>
       </c>
-      <c r="E15" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1488,9 +1470,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>1000</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1529,7 +1509,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1521,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19.88957487503743</t>
+          <t>7.009396664285266</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.83392401079928</v>
+        <v>6.988263386565217</v>
       </c>
       <c r="D2" t="n">
-        <v>19.94209355564357</v>
+        <v>7.03024210184488</v>
       </c>
       <c r="E2" t="n">
-        <v>3000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1562,17 +1542,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.1688227865642009</t>
+          <t>0.16974595771569798</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1544250514856262</v>
+        <v>0.1550192217742983</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1828753996014846</v>
+        <v>0.1836222321317008</v>
       </c>
       <c r="E3" t="n">
-        <v>3000</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -1583,17 +1563,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.15555460802619228</t>
+          <t>0.15651366116541007</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1451114381525201</v>
+        <v>0.1457448730744444</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1651813140665994</v>
+        <v>0.1671218672826067</v>
       </c>
       <c r="E4" t="n">
-        <v>3000</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1604,17 +1584,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.1978243973632972</t>
+          <t>0.21583303172507018</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1883472473652682</v>
+        <v>0.2042026745260351</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2061466379899108</v>
+        <v>0.2260278372165169</v>
       </c>
       <c r="E5" t="n">
-        <v>3000</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -1625,18 +1605,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.20285853057262573</t>
+          <t>0.20443995737394527</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1826272858137609</v>
+        <v>0.1834588735853213</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2238036503586951</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3000</v>
-      </c>
+        <v>0.2249231371119212</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1646,13 +1624,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3.432162093847412</t>
+          <t>3.7783900442335048</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>3000</v>
+        <v>3.75889905491011</v>
       </c>
     </row>
     <row r="8">
@@ -1663,14 +1641,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.9785257584601095</t>
+          <t>0.9814416624999348</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>3000</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1680,14 +1656,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.9856459330143541</t>
+          <t>0.9904306220095693</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>3000</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1697,14 +1671,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.9786223277909739</t>
+          <t>0.9787234042553191</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>3000</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1719,9 +1691,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>3000</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1736,9 +1706,7 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>3000</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1748,14 +1716,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>3000</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1765,14 +1731,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>414</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>3000</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1786,14 +1750,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.99</v>
+        <v>0.992</v>
       </c>
       <c r="D15" t="n">
         <v>0.999</v>
       </c>
-      <c r="E15" t="n">
-        <v>3000</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1808,9 +1770,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>3000</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1849,7 +1809,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -1861,17 +1821,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.15715222669375</t>
+          <t>7.068671383872614</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.09871966009402</v>
+        <v>7.049738502104775</v>
       </c>
       <c r="D2" t="n">
-        <v>20.21304133717135</v>
+        <v>7.0877788104216</v>
       </c>
       <c r="E2" t="n">
-        <v>600</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1882,17 +1842,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.04108297314132614</t>
+          <t>0.05873646719975778</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0338625706485192</v>
+        <v>0.050293580404145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0486836055473971</v>
+        <v>0.0675281969382646</v>
       </c>
       <c r="E3" t="n">
-        <v>600</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -1903,17 +1863,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.001109402358657312</t>
+          <t>0.005350864989124436</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0003930269580412</v>
+        <v>0.0034626054331331</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0021313222376623</v>
+        <v>0.0077875024180171</v>
       </c>
       <c r="E4" t="n">
-        <v>600</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1924,17 +1884,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.2195316901856403</t>
+          <t>0.2474797390122694</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1982858411262894</v>
+        <v>0.2290397862604969</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2412725935499453</v>
+        <v>0.2665507948612029</v>
       </c>
       <c r="E5" t="n">
-        <v>600</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -1945,18 +1905,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.042844401875755965</t>
+          <t>0.06215984411100082</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0350494352931625</v>
+        <v>0.0529569764712571</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0511749966594528</v>
-      </c>
-      <c r="E6" t="n">
-        <v>600</v>
-      </c>
+        <v>0.0724184871979439</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1966,13 +1924,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.8382670774356019</t>
+          <t>0.9756469379804653</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>600</v>
+        <v>0.751779810982022</v>
       </c>
     </row>
     <row r="8">
@@ -1983,14 +1941,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.4035983885594336</t>
+          <t>0.5134486832886676</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>600</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2000,14 +1956,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.19856459330143542</t>
+          <t>0.3181818181818182</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>600</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2017,14 +1971,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.9651162790697675</t>
+          <t>0.9568345323741008</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>600</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2034,14 +1986,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2079</t>
+          <t>2076</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>600</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2051,14 +2001,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>600</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2068,14 +2016,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>285</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>600</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2085,14 +2031,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>600</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2102,18 +2046,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.0655</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6294000000000002</v>
-      </c>
-      <c r="E15" t="n">
-        <v>600</v>
-      </c>
+        <v>0.9304000000000002</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2128,9 +2070,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>600</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2169,7 +2109,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2181,17 +2121,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.216286107267667</t>
+          <t>7.058636870910165</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.16572183131433</v>
+        <v>7.040856103456337</v>
       </c>
       <c r="D2" t="n">
-        <v>20.26314949937179</v>
+        <v>7.077879237981836</v>
       </c>
       <c r="E2" t="n">
-        <v>500</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2202,17 +2142,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.009593860956533189</t>
+          <t>0.01963881297015696</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0059298786946403</v>
+        <v>0.0146001711542886</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0133739692315541</v>
+        <v>0.0255000952577474</v>
       </c>
       <c r="E3" t="n">
-        <v>500</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -2223,17 +2163,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.00026630568265865047</t>
+          <t>0.0003818619425383584</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.176631234397069e-05</v>
+        <v>4.336356882985256e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0009042566069322</v>
+        <v>0.0011251762365414</v>
       </c>
       <c r="E4" t="n">
-        <v>500</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -2244,17 +2184,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.26816060360817495</t>
+          <t>0.22869226187304278</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2160859674613623</v>
+        <v>0.1981991442020576</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3180931596516513</v>
+        <v>0.2576174586529808</v>
       </c>
       <c r="E5" t="n">
-        <v>500</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -2265,18 +2205,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.009479061717086797</t>
+          <t>0.01997293623286406</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0059652523604988</v>
+        <v>0.0148164951508974</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0135552935413262</v>
-      </c>
-      <c r="E6" t="n">
-        <v>500</v>
-      </c>
+        <v>0.0261673771968356</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2286,13 +2224,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.8944517271712079</t>
+          <t>0.9883095679704691</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>500</v>
+        <v>0.6264831758183516</v>
       </c>
     </row>
     <row r="8">
@@ -2303,14 +2241,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.17911683938561454</t>
+          <t>0.26466277246136105</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>500</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2320,14 +2256,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.03827751196172249</t>
+          <t>0.0861244019138756</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>500</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2337,14 +2271,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.972972972972973</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>500</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2354,14 +2286,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2082</t>
+          <t>2081</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>500</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2371,14 +2301,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>500</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2388,14 +2316,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>382</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>500</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2405,14 +2331,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>500</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2422,18 +2346,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.007</t>
+          <t>0.014000000000000002</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0.001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05428</v>
-      </c>
-      <c r="E15" t="n">
-        <v>500</v>
-      </c>
+        <v>0.1200800000000003</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2448,9 +2370,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>500</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2489,7 +2409,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2501,17 +2421,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>19.942930496023656</t>
+          <t>7.009003404706795</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.88284893770522</v>
+        <v>6.987902880518768</v>
       </c>
       <c r="D2" t="n">
-        <v>19.99798518192015</v>
+        <v>7.029816487933454</v>
       </c>
       <c r="E2" t="n">
-        <v>2000</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2522,17 +2442,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.17104081654648043</t>
+          <t>0.16962977155014072</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1575618535155968</v>
+        <v>0.1549110177098832</v>
       </c>
       <c r="D3" t="n">
-        <v>0.185501805487448</v>
+        <v>0.1834989829152644</v>
       </c>
       <c r="E3" t="n">
-        <v>2000</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -2543,17 +2463,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.14890107209101427</t>
+          <t>0.15435337527939938</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1397984688029721</v>
+        <v>0.1436471627608969</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1590419386784503</v>
+        <v>0.1649029904986294</v>
       </c>
       <c r="E4" t="n">
-        <v>2000</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -2564,17 +2484,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.20563206191185585</t>
+          <t>0.22266322363481733</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1958951476226912</v>
+        <v>0.2105757430720057</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2157681316795433</v>
+        <v>0.233245317897553</v>
       </c>
       <c r="E5" t="n">
-        <v>2000</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -2585,18 +2505,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.20674658746274235</t>
+          <t>0.20427142351282557</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1870307727957001</v>
+        <v>0.1833073450917441</v>
       </c>
       <c r="D6" t="n">
-        <v>0.227749812980667</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2000</v>
-      </c>
+        <v>0.2247382372537851</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2606,13 +2524,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2.2626038250539438</t>
+          <t>2.506632771868633</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>2000</v>
+        <v>2.505932703273406</v>
       </c>
     </row>
     <row r="8">
@@ -2623,14 +2541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.9757934464391493</t>
+          <t>0.9757235450842467</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>2000</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2640,14 +2556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.9880382775119617</t>
+          <t>0.9856459330143541</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>2000</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2657,14 +2571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.971764705882353</t>
+          <t>0.9739952718676123</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>2000</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2674,14 +2586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2070</t>
+          <t>2071</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>2000</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -2691,14 +2601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>2000</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -2708,14 +2616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>2000</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2725,14 +2631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>412</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>2000</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -2746,14 +2650,12 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.99</v>
+        <v>0.98872</v>
       </c>
       <c r="D15" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2000</v>
-      </c>
+        <v>0.999</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -2768,9 +2670,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>2000</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2809,7 +2709,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2821,17 +2721,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.139393057830656</t>
+          <t>7.039613349360437</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.08374113254349</v>
+        <v>7.02094398391409</v>
       </c>
       <c r="D2" t="n">
-        <v>20.18743211878954</v>
+        <v>7.0596621082853</v>
       </c>
       <c r="E2" t="n">
-        <v>300</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2842,17 +2742,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.00022719446513872382</t>
+          <t>0.00022154815861762496</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.235168683984837e-07</v>
+        <v>9.344490076221396e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008993391892392</v>
+        <v>0.0010507981424164</v>
       </c>
       <c r="E3" t="n">
-        <v>300</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -2863,17 +2763,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.00019797109150229895</t>
+          <t>0.00019717091812639082</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.591881403444299e-06</v>
+        <v>3.675993170761156e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0008052522744499</v>
+        <v>0.0006184953461431</v>
       </c>
       <c r="E4" t="n">
-        <v>300</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -2884,17 +2784,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.9530935264915614</t>
+          <t>0.8983222923280427</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0278600681821872</v>
+        <v>0.0211136142216689</v>
       </c>
       <c r="D5" t="n">
-        <v>2.748378867494834</v>
+        <v>2.84248591938567</v>
       </c>
       <c r="E5" t="n">
-        <v>300</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -2905,18 +2805,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.00021513176796644377</t>
+          <t>0.0002221587699497465</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.235170478937815e-07</v>
+        <v>9.344498810079748e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0009001506618761</v>
-      </c>
-      <c r="E6" t="n">
-        <v>300</v>
-      </c>
+        <v>0.001051903824177</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -2928,7 +2826,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>300</v>
+        <v>0.375889905491011</v>
       </c>
     </row>
     <row r="8">
@@ -2944,9 +2842,7 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>300</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -2961,9 +2857,7 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>300</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -2978,9 +2872,7 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>300</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -2995,9 +2887,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>300</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3012,9 +2902,7 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>300</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3029,9 +2917,7 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>300</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3046,9 +2932,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>300</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3067,9 +2951,7 @@
       <c r="D15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
-        <v>300</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3084,9 +2966,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>300</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3125,7 +3005,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3137,17 +3017,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.04764797522867</t>
+          <t>7.0007743861242</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>19.99147015969449</v>
+        <v>6.979700370437143</v>
       </c>
       <c r="D2" t="n">
-        <v>20.10316300504439</v>
+        <v>7.018550463389715</v>
       </c>
       <c r="E2" t="n">
-        <v>1500</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3158,17 +3038,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.170591023905313</t>
+          <t>0.17151279967992866</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1573513870759241</v>
+        <v>0.1578142728733353</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1856582593186256</v>
+        <v>0.1849963555682308</v>
       </c>
       <c r="E3" t="n">
-        <v>1500</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -3179,17 +3059,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.13488686043683473</t>
+          <t>0.14261591547277028</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1260083870938148</v>
+        <v>0.1314440719115401</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1452270645584449</v>
+        <v>0.1536220681056515</v>
       </c>
       <c r="E4" t="n">
-        <v>1500</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -3200,17 +3080,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.21037945167560795</t>
+          <t>0.2342793932516102</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2006422173706756</v>
+        <v>0.2219414548859407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.219665626033344</v>
+        <v>0.247094431738081</v>
       </c>
       <c r="E5" t="n">
-        <v>1500</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -3221,18 +3101,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.20578093235126818</t>
+          <t>0.20708899284900015</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1867343365006741</v>
+        <v>0.1873866401454699</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2279856871375483</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1500</v>
-      </c>
+        <v>0.2269883786069277</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3242,13 +3120,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1.66544357762601</t>
+          <t>1.8730649751136386</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1500</v>
+        <v>1.879449527455055</v>
       </c>
     </row>
     <row r="8">
@@ -3259,14 +3137,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.9701741542282935</t>
+          <t>0.9757934464391493</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>1500</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3276,14 +3152,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.9856459330143541</t>
+          <t>0.9880382775119617</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>1500</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3293,14 +3167,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.9648711943793911</t>
+          <t>0.971764705882353</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>1500</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3310,14 +3182,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2067</t>
+          <t>2070</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>1500</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3327,14 +3197,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>1500</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3344,14 +3212,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>1500</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3361,14 +3227,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>413</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>1500</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3378,7 +3242,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.995</t>
+          <t>0.996</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3387,9 +3251,7 @@
       <c r="D15" t="n">
         <v>0.998</v>
       </c>
-      <c r="E15" t="n">
-        <v>1500</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3404,9 +3266,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>1500</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3445,7 +3305,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>height</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3457,17 +3317,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.19788858448332</t>
+          <t>7.089729107391993</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>20.14419294973661</v>
+        <v>7.071622064866045</v>
       </c>
       <c r="D2" t="n">
-        <v>20.25372081861976</v>
+        <v>7.108679699187116</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3478,17 +3338,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.10252091953143949</t>
+          <t>0.12211136572692433</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0918122201777104</v>
+        <v>0.1104532691817738</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1131171528754864</v>
+        <v>0.1338608094917921</v>
       </c>
       <c r="E3" t="n">
-        <v>750</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -3499,17 +3359,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.00856457284725875</t>
+          <t>0.02426525252132864</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0059579123441156</v>
+        <v>0.0205287448076475</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0111889740626732</v>
+        <v>0.0288168332483779</v>
       </c>
       <c r="E4" t="n">
-        <v>750</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -3520,17 +3380,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.24426581940556974</t>
+          <t>0.27183120186506265</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2301680561675135</v>
+        <v>0.2573248791943349</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2590439909375681</v>
+        <v>0.2874883384071703</v>
       </c>
       <c r="E5" t="n">
-        <v>750</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -3541,18 +3401,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.11418718847887335</t>
+          <t>0.1385126079351411</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1010939016758237</v>
+        <v>0.1241680371312867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1275447948794958</v>
-      </c>
-      <c r="E6" t="n">
-        <v>750</v>
-      </c>
+        <v>0.1545488427471889</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3562,13 +3420,13 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.9032625446567821</t>
+          <t>1.0343989578561559</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>750</v>
+        <v>0.9397247637275276</v>
       </c>
     </row>
     <row r="8">
@@ -3579,14 +3437,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.7184506805888212</t>
+          <t>0.7878555522018004</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="n">
-        <v>750</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3596,14 +3452,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.5885167464114832</t>
+          <t>0.6913875598086124</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>750</v>
-      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3613,14 +3467,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.9609375</t>
+          <t>0.9633333333333334</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>750</v>
-      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3630,14 +3482,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2072</t>
+          <t>2071</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
-        <v>750</v>
-      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3647,14 +3497,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>750</v>
-      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3664,14 +3512,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>129</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>750</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3681,14 +3527,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>289</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="n">
-        <v>750</v>
-      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3698,18 +3542,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.715</t>
+          <t>0.9285000000000001</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.092</v>
+        <v>0.134</v>
       </c>
       <c r="D15" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="E15" t="n">
-        <v>750</v>
-      </c>
+        <v>0.997</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3724,9 +3566,7 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>750</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/supplementary/data1/height.xlsx
+++ b/supplementary/data1/height.xlsx
@@ -1183,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,16 +1219,14 @@
           <t>gain</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7.057962297856839</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7.034142162758913</v>
       </c>
       <c r="C2" t="n">
-        <v>7.039929869230657</v>
+        <v>7.015025513894237</v>
       </c>
       <c r="D2" t="n">
-        <v>7.076834808306247</v>
+        <v>7.05543529090581</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -1237,22 +1235,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.16651061243110335</t>
-        </is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2694058403631377</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1532730073110934</v>
+        <v>0.255781366266393</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1798483709839325</v>
+        <v>0.2829367046070988</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -1261,16 +1257,14 @@
           <t>lamda</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.09463688946301527</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.09301020681496283</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0872482834649749</v>
+        <v>0.08392296746753029</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1032714023124172</v>
+        <v>0.1019450245822854</v>
       </c>
       <c r="E4" t="n">
         <v>0.15</v>
@@ -1279,70 +1273,52 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>proximity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.26108147380757496</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2488915863015882</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2742117804529039</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.2801787280649</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>1.252966351636703</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Keq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.19906004536715616</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1810182202301379</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2192867590278528</v>
-      </c>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9561831180029972</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.2423315546024025</t>
-        </is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9784688995215312</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>1.252966351636703</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.9498811287415511</t>
-        </is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9489559164733179</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1351,13 +1327,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.9617224880382775</t>
-        </is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2060</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1366,13 +1340,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.9548693586698337</t>
-        </is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>22</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1381,13 +1353,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2063</t>
-        </is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1396,13 +1366,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>409</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1411,66 +1379,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9981329400220484</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9914639157649024</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9988817810032776</v>
+      </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>402</t>
-        </is>
-      </c>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.994</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.96972</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1483,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1519,16 +1453,14 @@
           <t>gain</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7.009396664285266</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7.000974930435242</v>
       </c>
       <c r="C2" t="n">
-        <v>6.988263386565217</v>
+        <v>6.981604199806122</v>
       </c>
       <c r="D2" t="n">
-        <v>7.03024210184488</v>
+        <v>7.019418494615056</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -1537,22 +1469,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.16974595771569798</t>
-        </is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2171133692908053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1550192217742983</v>
+        <v>0.206547202237869</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1836222321317008</v>
+        <v>0.2268886497068103</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -1561,16 +1491,14 @@
           <t>lamda</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.15651366116541007</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.155722087838384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1457448730744444</v>
+        <v>0.1455443832532409</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1671218672826067</v>
+        <v>0.1657573553448868</v>
       </c>
       <c r="E4" t="n">
         <v>0.15</v>
@@ -1579,70 +1507,52 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>proximity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.21583303172507018</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2042026745260351</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2260278372165169</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3.785478722606782</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>3.75889905491011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Keq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.20443995737394527</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1834588735853213</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2249231371119212</v>
-      </c>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9843545400208228</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3.7783900442335048</t>
-        </is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9952153110047847</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>3.75889905491011</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.9814416624999348</t>
-        </is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9788235294117648</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1651,13 +1561,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.9904306220095693</t>
-        </is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2073</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1666,13 +1574,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.9787234042553191</t>
-        </is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1681,13 +1587,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2073</t>
-        </is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1696,13 +1600,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>416</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1711,66 +1613,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.99786522237556</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9956867100441428</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9984664906471048</v>
+      </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.997</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1783,7 +1651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1819,16 +1687,14 @@
           <t>gain</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7.068671383872614</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7.076950869317688</v>
       </c>
       <c r="C2" t="n">
-        <v>7.049738502104775</v>
+        <v>7.058746819267185</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0877788104216</v>
+        <v>7.099505617925272</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -1837,22 +1703,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.05873646719975778</t>
-        </is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2706732594785299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.050293580404145</v>
+        <v>0.2524354259608783</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0675281969382646</v>
+        <v>0.2882143060328901</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -1861,16 +1725,14 @@
           <t>lamda</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.005350864989124436</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.005180549316922523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0034626054331331</v>
+        <v>0.0032827536136796</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0077875024180171</v>
+        <v>0.0073773659358815</v>
       </c>
       <c r="E4" t="n">
         <v>0.15</v>
@@ -1879,70 +1741,52 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>proximity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.2474797390122694</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2290397862604969</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2665507948612029</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.040193239425055</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.751779810982022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Keq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.06215984411100082</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0529569764712571</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0724184871979439</v>
-      </c>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5926191011216606</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.9756469379804653</t>
-        </is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4138755980861244</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.751779810982022</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.5134486832886676</t>
-        </is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9611111111111111</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1951,13 +1795,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.3181818181818182</t>
-        </is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2075</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1966,13 +1808,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.9568345323741008</t>
-        </is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1981,13 +1821,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2076</t>
-        </is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>245</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1996,13 +1834,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>173</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -2011,66 +1847,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>285</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.325803596028523</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0275770689997697</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.974505373814912</v>
+      </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>133</t>
-        </is>
-      </c>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.113</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9304000000000002</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2083,7 +1885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2119,16 +1921,14 @@
           <t>gain</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7.058636870910165</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7.070075699103146</v>
       </c>
       <c r="C2" t="n">
-        <v>7.040856103456337</v>
+        <v>7.049293699136112</v>
       </c>
       <c r="D2" t="n">
-        <v>7.077879237981836</v>
+        <v>7.090387495772137</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -2137,22 +1937,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.01963881297015696</t>
-        </is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2408392205104909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0146001711542886</v>
+        <v>0.2160359974739336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0255000952577474</v>
+        <v>0.2674804211380422</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -2161,16 +1959,14 @@
           <t>lamda</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.0003818619425383584</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.0002685456869370941</v>
       </c>
       <c r="C4" t="n">
-        <v>4.336356882985256e-05</v>
+        <v>8.918739065368626e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0011251762365414</v>
+        <v>0.0009380160933536</v>
       </c>
       <c r="E4" t="n">
         <v>0.15</v>
@@ -2179,70 +1975,52 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>proximity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.22869226187304278</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1981991442020576</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2576174586529808</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.003229771722325</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.6264831758183516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Keq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.01997293623286406</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.0148164951508974</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0261673771968356</v>
-      </c>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3570803492592114</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.9883095679704691</t>
-        </is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1555023923444976</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.6264831758183516</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.26466277246136105</t>
-        </is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9701492537313433</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -2251,13 +2029,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.0861244019138756</t>
-        </is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2080</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -2266,13 +2042,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.972972972972973</t>
-        </is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -2281,13 +2055,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2081</t>
-        </is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>353</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -2296,13 +2068,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>65</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -2311,66 +2081,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>382</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.031796991465299</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0038973331982059</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4771939347191853</v>
+      </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.014000000000000002</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.1200800000000003</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2383,7 +2119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2419,16 +2155,14 @@
           <t>gain</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7.009003404706795</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7.036098198990219</v>
       </c>
       <c r="C2" t="n">
-        <v>6.987902880518768</v>
+        <v>7.018108716764824</v>
       </c>
       <c r="D2" t="n">
-        <v>7.029816487933454</v>
+        <v>7.05358097903175</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -2437,22 +2171,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.16962977155014072</t>
-        </is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2282302523484603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1549110177098832</v>
+        <v>0.2170120743602143</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1834989829152644</v>
+        <v>0.2399603745126308</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -2461,16 +2193,14 @@
           <t>lamda</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.15435337527939938</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.1504835540441752</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1436471627608969</v>
+        <v>0.1389092651759949</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1649029904986294</v>
+        <v>0.1617543744219723</v>
       </c>
       <c r="E4" t="n">
         <v>0.15</v>
@@ -2479,70 +2209,52 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>proximity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.22266322363481733</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2105757430720057</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.233245317897553</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.504811317647184</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>2.505932703273406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Keq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.20427142351282557</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1833073450917441</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2247382372537851</v>
-      </c>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9772567565381872</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2.506632771868633</t>
-        </is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9904306220095693</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>2.505932703273406</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.9757235450842467</t>
-        </is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.971830985915493</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -2551,13 +2263,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.9856459330143541</t>
-        </is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2070</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -2566,13 +2276,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.9739952718676123</t>
-        </is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -2581,13 +2289,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2071</t>
-        </is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -2596,13 +2302,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>414</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -2611,66 +2315,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9976704412921695</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9958089772262571</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9982290155574888</v>
+      </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.996</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.98872</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2683,7 +2353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,16 +2389,14 @@
           <t>gain</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7.039613349360437</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7.017961764724182</v>
       </c>
       <c r="C2" t="n">
-        <v>7.02094398391409</v>
+        <v>6.998872031701461</v>
       </c>
       <c r="D2" t="n">
-        <v>7.0596621082853</v>
+        <v>7.036681910842788</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -2737,22 +2405,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.00022154815861762496</t>
-        </is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7335938493069347</v>
       </c>
       <c r="C3" t="n">
-        <v>9.344490076221396e-07</v>
+        <v>0.2262567051975684</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0010507981424164</v>
+        <v>1.446864937823193</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -2761,16 +2427,14 @@
           <t>lamda</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.00019717091812639082</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.0002208383460565152</v>
       </c>
       <c r="C4" t="n">
-        <v>3.675993170761156e-06</v>
+        <v>5.586893683823886e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006184953461431</v>
+        <v>0.000825196520306</v>
       </c>
       <c r="E4" t="n">
         <v>0.15</v>
@@ -2779,66 +2443,50 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>proximity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.8983222923280427</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0211136142216689</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.84248591938567</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.375889905491011</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Keq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.0002221587699497465</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>9.344498810079748e-07</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001051903824177</v>
-      </c>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.04464461618503825</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.002392344497607655</v>
+      </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.375889905491011</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -2847,13 +2495,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2082</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -2862,13 +2508,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -2877,13 +2521,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2082</t>
-        </is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>417</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -2892,13 +2534,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -2907,66 +2547,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>418</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1.672951429841378e-05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.43853773216947e-06</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0001078829095759</v>
+      </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2979,7 +2585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,16 +2621,14 @@
           <t>gain</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7.0007743861242</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7.030056157345622</v>
       </c>
       <c r="C2" t="n">
-        <v>6.979700370437143</v>
+        <v>7.01330548595586</v>
       </c>
       <c r="D2" t="n">
-        <v>7.018550463389715</v>
+        <v>7.049946184287862</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -3033,22 +2637,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.17151279967992866</t>
-        </is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.246791963150225</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1578142728733353</v>
+        <v>0.2345419044071221</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1849963555682308</v>
+        <v>0.258545997928053</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -3057,16 +2659,14 @@
           <t>lamda</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.14261591547277028</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.1406702063636835</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1314440719115401</v>
+        <v>0.1315005507756288</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1536220681056515</v>
+        <v>0.149398010694624</v>
       </c>
       <c r="E4" t="n">
         <v>0.15</v>
@@ -3075,70 +2675,52 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>proximity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.2342793932516102</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2219414548859407</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.247094431738081</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.867530975128935</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>1.879449527455055</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Keq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.20708899284900015</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1873866401454699</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.2269883786069277</v>
-      </c>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9732103430137944</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.8730649751136386</t>
-        </is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.9928229665071771</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>1.879449527455055</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.9757934464391493</t>
-        </is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.962877030162413</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3147,13 +2729,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.9880382775119617</t>
-        </is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2066</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -3162,13 +2742,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.971764705882353</t>
-        </is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>16</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -3177,13 +2755,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2070</t>
-        </is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3192,13 +2768,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>415</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -3207,66 +2781,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9974392812495854</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9958351790980984</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9980147996844948</v>
+      </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>413</t>
-        </is>
-      </c>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.996</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.989</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3279,7 +2819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3315,16 +2855,14 @@
           <t>gain</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>7.089729107391993</t>
-        </is>
+      <c r="B2" t="n">
+        <v>7.075781810405939</v>
       </c>
       <c r="C2" t="n">
-        <v>7.071622064866045</v>
+        <v>7.056919415411265</v>
       </c>
       <c r="D2" t="n">
-        <v>7.108679699187116</v>
+        <v>7.096019393383608</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
@@ -3333,22 +2871,20 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>pi</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.12211136572692433</t>
-        </is>
+          <t>proximity</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.2969598435773435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1104532691817738</v>
+        <v>0.2823842082234533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1338608094917921</v>
+        <v>0.3129394057311465</v>
       </c>
       <c r="E3" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4">
@@ -3357,16 +2893,14 @@
           <t>lamda</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.02426525252132864</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.0221882412982409</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0205287448076475</v>
+        <v>0.0184211908285875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0288168332483779</v>
+        <v>0.0258724834488904</v>
       </c>
       <c r="E4" t="n">
         <v>0.15</v>
@@ -3375,70 +2909,52 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>proximity</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.27183120186506265</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2573248791943349</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.2874883384071703</v>
-      </c>
+          <t>SNR</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1.094456001177617</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0.9397247637275276</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Keq</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.1385126079351411</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1241680371312867</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.1545488427471889</v>
-      </c>
+          <t>MCC</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8448980637700251</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>SNR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.0343989578561559</t>
-        </is>
+          <t>Recall</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7966507177033493</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>0.9397247637275276</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MCC</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.7878555522018004</t>
-        </is>
+          <t>Precision</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9460227272727273</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -3447,13 +2963,11 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.6913875598086124</t>
-        </is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2063</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -3462,13 +2976,11 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.9633333333333334</t>
-        </is>
+          <t>FP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>19</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -3477,13 +2989,11 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2071</t>
-        </is>
+          <t>FN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>85</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -3492,13 +3002,11 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>FP</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>333</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -3507,66 +3015,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>FN</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>p(specific)</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.9701286032528449</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3170052359281776</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.9992170438234118</v>
+      </c>
       <c r="E13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
-      </c>
+          <t>pi</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>p(specific)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.9285000000000001</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>trained</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
